--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6287e4f42bbc5a35/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCCA3FC-5D85-49AE-8AF7-35363E19EB08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E9ACA1-6B75-4BD1-9DAE-B1A278FE0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1205,6 +1205,54 @@
   </si>
   <si>
     <t>Emission Factor</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_TURBINE</t>
+  </si>
+  <si>
+    <t>Wind turbine Onshore</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND</t>
+  </si>
+  <si>
+    <t>WINDMINE</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>maximumoutput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMITED OUTPUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Mine </t>
+  </si>
+  <si>
+    <t>ELE_EX_PV_SOLAR</t>
+  </si>
+  <si>
+    <t>PV SOLAR</t>
+  </si>
+  <si>
+    <t>PV_SOLAR</t>
+  </si>
+  <si>
+    <t>PV_ELE</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV_SOLAR</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2488,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2589,6 +2637,204 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2597,201 +2843,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3068,6 +3119,7 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -3075,7 +3127,6 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3281,6 +3332,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3634,70 +3689,70 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="61" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="61" customWidth="1"/>
-    <col min="10" max="10" width="3" style="61" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="61" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="61" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18">
-      <c r="B2" s="62" t="s">
+    <row r="2" spans="1:11" ht="17.399999999999999">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="58" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70" t="s">
+    <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="58"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="69"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -3722,11 +3777,11 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="124"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
+      <c r="A6" s="66"/>
       <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
@@ -3751,151 +3806,171 @@
       <c r="I6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="58"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="124"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="58"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="77" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="58"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="124"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="58"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="124"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="58"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" thickBot="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="58"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="124"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.8" thickBot="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="124"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="123"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="88" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="89" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="88" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3914,47 +3989,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="61" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="25" style="61" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="61" customWidth="1"/>
-    <col min="6" max="7" width="10" style="61" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="61" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="10" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="58" customWidth="1"/>
+    <col min="6" max="7" width="10" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="95"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="29" t="s">
@@ -4015,176 +4090,257 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="73" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B9" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="77" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E10" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F10" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G10" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H10" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="B11" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="102" t="s">
+      <c r="B12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C19" s="98" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="102" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C20" s="98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="102" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C21" s="98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="102" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C22" s="98" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="102" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C23" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E23" s="98" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="102" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C24" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E24" s="98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="102" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C25" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E25" s="98" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="102" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C26" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="102" t="s">
+      <c r="E26" s="98" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="102" t="s">
+    <row r="27" spans="2:5">
+      <c r="B27" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C27" s="98" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4199,21 +4355,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="C1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4237,7 +4393,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="18">
+    <row r="2" spans="1:20" ht="17.399999999999999">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>82</v>
@@ -4325,7 +4481,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="26.25" thickBot="1">
+    <row r="6" spans="1:20" ht="27" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="24" t="s">
         <v>88</v>
@@ -4354,7 +4510,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1">
+    <row r="7" spans="1:20" ht="13.8" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="55" t="s">
         <v>92</v>
@@ -4381,11 +4537,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="str">
-        <f>SEC_Processes!D8</f>
+        <f>SEC_Processes!D10</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>SEC_Processes!E8</f>
+        <f>SEC_Processes!E10</f>
         <v>Brown Coal Mine</v>
       </c>
       <c r="D8" s="14" t="str">
@@ -4400,39 +4556,66 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="11" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>MIN_EX_PV_SOLAR</v>
+      </c>
+      <c r="C9" s="72" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>PV SOLAR</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>PV_ELE</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="16" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>MIN_EX_WIND</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="122">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4444,57 +4627,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="61" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" style="61" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="61" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="4.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.44140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="103" t="s">
+    <row r="2" spans="2:12" ht="17.399999999999999">
+      <c r="B2" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="49" t="s">
@@ -4528,7 +4711,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="36">
+    <row r="6" spans="2:12" ht="39.6">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4560,7 +4743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="24">
+    <row r="7" spans="2:12" ht="26.4">
       <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
@@ -4587,58 +4770,129 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="115" t="str">
+      <c r="B8" s="111" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="115" t="str">
+      <c r="C8" s="111" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="116" t="str">
+      <c r="D8" s="112" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="116" t="str">
+      <c r="E8" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="113">
         <v>6.5</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="113">
         <v>0.3</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="118">
+      <c r="I8" s="114">
         <v>1</v>
       </c>
-      <c r="J8" s="119">
+      <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="118">
+      <c r="K8" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="125"/>
+      <c r="B9" s="111" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>ELE_EX_PV_SOLAR</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="112" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="113">
+        <v>2</v>
+      </c>
+      <c r="G9" s="113">
+        <v>1</v>
+      </c>
+      <c r="H9" s="114">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="114">
+        <v>0.33</v>
+      </c>
+      <c r="J9" s="115">
+        <v>1</v>
+      </c>
+      <c r="K9" s="114"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="116" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>ELE_EX_WIND_TURBINE</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="117" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F10" s="118">
+        <v>1.345</v>
+      </c>
+      <c r="G10" s="118">
+        <v>1</v>
+      </c>
+      <c r="H10" s="114">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I10" s="119">
+        <v>0.33</v>
+      </c>
+      <c r="J10" s="120">
+        <v>1</v>
+      </c>
+      <c r="K10" s="120"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="125"/>
+      <c r="E15" s="121"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16" s="121"/>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="58">
+        <v>42.41592</v>
+      </c>
+      <c r="I21" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="58">
+        <v>13.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4651,51 +4905,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="61"/>
-    <col min="2" max="2" width="17.140625" style="61" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="61" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="9.109375" style="58"/>
+    <col min="2" max="2" width="17.109375" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.44140625" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="103" t="s">
+    <row r="2" spans="2:11" ht="17.399999999999999">
+      <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="49" t="s">
@@ -4729,7 +4983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="36">
+    <row r="6" spans="2:11" ht="39.6">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4762,42 +5016,42 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="118"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-    </row>
-    <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="103" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.399999999999999">
+      <c r="B10" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="108" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4815,36 +5069,36 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="24">
+    <row r="17" spans="2:7" ht="26.4">
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="115" t="str">
+      <c r="B18" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="112">
         <v>200</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="G18" s="61">
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="G18" s="58">
         <f>+C18/PP!G8</f>
         <v>666.66666666666674</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4860,13 +5114,13 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
@@ -4913,18 +5167,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39" thickBot="1">
+    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -4954,7 +5208,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
     </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+    <row r="11" spans="2:10" ht="13.8" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
@@ -5129,13 +5383,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6287e4f42bbc5a35/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E9ACA1-6B75-4BD1-9DAE-B1A278FE0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{15E9ACA1-6B75-4BD1-9DAE-B1A278FE0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A8D6F1-1366-48AC-9FA8-FF853AD91156}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1253,6 +1253,9 @@
   </si>
   <si>
     <t>MIN_EX_PV_SOLAR</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
@@ -3334,10 +3337,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3991,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -4107,7 +4106,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -5113,7 +5112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -5224,21 +5223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5382,24 +5366,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5415,4 +5397,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6287e4f42bbc5a35/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{15E9ACA1-6B75-4BD1-9DAE-B1A278FE0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A8D6F1-1366-48AC-9FA8-FF853AD91156}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{15E9ACA1-6B75-4BD1-9DAE-B1A278FE0F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD84DB43-8B64-4F24-BB5C-877DA36BF04C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1183,9 +1183,6 @@
     <t>\I: Demand Commodity Name</t>
   </si>
   <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
     <t>Technology Specific Fuel Emission Factors</t>
   </si>
   <si>
@@ -1256,6 +1253,42 @@
   </si>
   <si>
     <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>ATRIBUTE MASTEF</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2524,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2628,9 +2661,6 @@
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,11 +2871,11 @@
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3337,6 +3367,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3694,64 +3728,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="58" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="58" customWidth="1"/>
-    <col min="10" max="10" width="3" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="58" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="58"/>
+    <col min="1" max="1" width="2.88671875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="57" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" style="57" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="3" style="57" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="57" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="57" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="17.399999999999999">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="124" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="123" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="124"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="66"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
@@ -3776,11 +3810,11 @@
       <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="124"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="123"/>
     </row>
     <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
@@ -3805,171 +3839,171 @@
       <c r="I6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="124"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="70" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="124"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="74" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="124"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="78" t="s">
+      <c r="C9" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="124"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
+      <c r="F10" s="76"/>
+      <c r="G10" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="124"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="124"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="124"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="123"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="122"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="86" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="87" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="88" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="87" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="89" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3990,45 +4024,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="58" customWidth="1"/>
-    <col min="6" max="7" width="10" style="58" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="10" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="58"/>
+    <col min="1" max="1" width="2.88671875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="25" style="57" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" style="57" customWidth="1"/>
+    <col min="6" max="7" width="10" style="57" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="57" customWidth="1"/>
+    <col min="10" max="10" width="10" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="29" t="s">
@@ -4089,257 +4123,257 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
+      <c r="H7" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="70" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="70" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="F9" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B10" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B11" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="E11" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74" t="s">
+      <c r="G11" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="74" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G12" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H12" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="74" t="s">
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="98" t="s">
+      <c r="C26" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="98" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="98" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="97" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4511,15 +4545,15 @@
     </row>
     <row r="7" spans="1:20" ht="13.8" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>94</v>
       </c>
       <c r="G7" s="10"/>
@@ -4559,7 +4593,7 @@
         <f>SEC_Processes!D12</f>
         <v>MIN_EX_PV_SOLAR</v>
       </c>
-      <c r="C9" s="72" t="str">
+      <c r="C9" s="71" t="str">
         <f>SEC_Processes!E12</f>
         <v>PV SOLAR</v>
       </c>
@@ -4578,12 +4612,12 @@
         <v>MIN_EX_WIND</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="122">
+        <v>130</v>
+      </c>
+      <c r="E10" s="121">
         <v>1E-3</v>
       </c>
       <c r="F10" s="18"/>
@@ -4634,49 +4668,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="58" customWidth="1"/>
-    <col min="5" max="11" width="11.44140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="58"/>
+    <col min="1" max="1" width="4.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="57" customWidth="1"/>
+    <col min="5" max="11" width="11.44140625" style="57" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="17.399999999999999">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="49" t="s">
@@ -4723,173 +4757,173 @@
       <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="26.4">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="57" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="111" t="str">
+      <c r="B8" s="110" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="111" t="str">
+      <c r="C8" s="110" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="112" t="str">
+      <c r="D8" s="111" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="112" t="str">
+      <c r="E8" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="112">
         <v>6.5</v>
       </c>
-      <c r="G8" s="113">
+      <c r="G8" s="112">
         <v>0.3</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="113">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="114">
+      <c r="I8" s="113">
         <v>1</v>
       </c>
-      <c r="J8" s="115">
+      <c r="J8" s="114">
         <v>1</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="113">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="111" t="str">
+      <c r="B9" s="110" t="str">
         <f>SEC_Processes!D8</f>
         <v>ELE_EX_PV_SOLAR</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="112" t="str">
+      <c r="E9" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="112">
         <v>2</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="112">
         <v>1</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="113">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="114">
+      <c r="I9" s="113">
         <v>0.33</v>
       </c>
-      <c r="J9" s="115">
+      <c r="J9" s="114">
         <v>1</v>
       </c>
-      <c r="K9" s="114"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="116" t="str">
+      <c r="B10" s="115" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_WIND_TURBINE</v>
       </c>
-      <c r="C10" s="116" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="117" t="s">
+      <c r="C10" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="D10" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="116" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="117">
         <v>1.345</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="117">
         <v>1</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="113">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="119">
+      <c r="I10" s="118">
         <v>0.33</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="119">
         <v>1</v>
       </c>
-      <c r="K10" s="120"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="121"/>
+      <c r="E15" s="120"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="E16" s="121"/>
+      <c r="E16" s="120"/>
     </row>
     <row r="21" spans="7:9">
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="57">
+        <v>42.41592</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="58">
-        <v>42.41592</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
-      <c r="G22" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="58">
+      <c r="H22" s="57">
         <v>13.9</v>
       </c>
     </row>
@@ -4902,55 +4936,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="58"/>
-    <col min="2" max="2" width="17.109375" style="58" customWidth="1"/>
-    <col min="3" max="11" width="11.44140625" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="58"/>
+    <col min="1" max="1" width="9.109375" style="57"/>
+    <col min="2" max="2" width="17.109375" style="57" customWidth="1"/>
+    <col min="3" max="11" width="11.44140625" style="57" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.399999999999999">
-      <c r="B2" s="99" t="s">
+    <row r="2" spans="2:16" ht="17.399999999999999">
+      <c r="B2" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="108" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="E4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="F4" s="107"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="49" t="s">
         <v>40</v>
       </c>
@@ -4981,8 +5015,11 @@
       <c r="K5" s="51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="39.6">
+      <c r="P5" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="39.6">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -5013,96 +5050,170 @@
       <c r="K6" s="52" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="114"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-    </row>
-    <row r="10" spans="2:11" ht="17.399999999999999">
-      <c r="B10" s="99" t="s">
+      <c r="P6" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="113"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+    </row>
+    <row r="10" spans="2:16" ht="17.399999999999999">
+      <c r="B10" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="108" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="107" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:16">
       <c r="B16" s="49" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="53">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="53">
         <v>2021</v>
       </c>
-      <c r="E16" s="54">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="26.4">
+      <c r="D16" s="53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="27" thickBot="1">
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="111" t="str">
+      <c r="B18" s="110" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="112">
-        <v>200</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="G18" s="58">
-        <f>+C18/PP!G8</f>
-        <v>666.66666666666674</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
+      <c r="C18" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="111">
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="57">
+        <f>+D18/PP!G8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="13.8" thickBot="1">
+      <c r="B19" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="111">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="111">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="111">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="111">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="111">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="111">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="111">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="D26" s="57">
+        <f>SUM(D18:D25)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C17:E17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5124,7 +5235,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15">
       <c r="B2" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -5141,7 +5252,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="36"/>
       <c r="C4" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -5157,13 +5268,13 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="H5" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="J5" s="31" t="s">
         <v>123</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
@@ -5171,13 +5282,13 @@
         <v>88</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="126" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -5367,18 +5478,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5400,18 +5511,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>